--- a/municipal/ENG/Demography/Number of live births/C. Tbilisi.xlsx
+++ b/municipal/ENG/Demography/Number of live births/C. Tbilisi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 3 - eng\cx 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of live births by urban-rural settlements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065BA5FA-BC01-4B91-BDBD-DD523ED24797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="435" windowWidth="11265" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="435" windowWidth="11265" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -288,6 +287,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -300,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,13 +325,10 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,12 +351,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,39 +646,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="22" customWidth="1"/>
-    <col min="2" max="13" width="9.5703125" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="10.7109375" style="19" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="1">
         <v>2010</v>
       </c>
@@ -690,12 +714,15 @@
       <c r="L5" s="2">
         <v>2020</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="20">
         <v>2021</v>
       </c>
+      <c r="N5" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
@@ -731,90 +758,99 @@
       <c r="L6" s="5">
         <v>15271</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>14979</v>
       </c>
+      <c r="N6" s="21">
+        <v>14202</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>16975</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>15690</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>15064</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>14776</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>17583</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>16947</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>16236</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>14619</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>15701</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>15452</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>14646</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="22">
         <v>14407</v>
       </c>
+      <c r="N7" s="23">
+        <v>13610</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>407</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>443</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>417</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>404</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>465</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>562</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>548</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>287</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>460</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>570</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>625</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <v>572</v>
+      </c>
+      <c r="N8" s="24">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
